--- a/Data/Input/IACET DATA.xlsx
+++ b/Data/Input/IACET DATA.xlsx
@@ -5,21 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GreatBots\Documents\UiPath\IACET_Performer\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GreatBots\Documents\UiPath\IACET_PerformerPerPage\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CustomerDetail" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Email</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>Full Cover</t>
-  </si>
-  <si>
-    <t>XRD</t>
   </si>
   <si>
     <t>URD</t>
@@ -547,11 +544,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1000"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -560,13 +557,12 @@
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="27.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="21" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="20" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,22 +570,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -597,19 +590,19 @@
         <v>40716543298</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -617,19 +610,19 @@
         <v>40791345621</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -637,19 +630,19 @@
         <v>40735416854</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -657,19 +650,19 @@
         <v>40733652145</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -677,19 +670,19 @@
         <v>40799885412</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -697,19 +690,19 @@
         <v>40733154268</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -717,19 +710,19 @@
         <v>40712462257</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -737,19 +730,19 @@
         <v>40731254562</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -757,19 +750,19 @@
         <v>40741785214</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -777,39 +770,39 @@
         <v>40731653845</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
